--- a/Daily Attandance record/16 June/19June.xlsx
+++ b/Daily Attandance record/16 June/19June.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Daily Attandance record\16 June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55329F7F-405B-4239-953E-2141E6C9D336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3236B469-87BF-49E3-AD8F-0414979BA4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="348" windowWidth="15960" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="1" r:id="rId1"/>
@@ -1500,7 +1500,7 @@
       <selection sqref="A1:F189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.296875" bestFit="1" customWidth="1"/>
@@ -1510,7 +1510,7 @@
     <col min="6" max="6" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -5300,11 +5300,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E882B2E-E3B9-4870-AF19-8B04F3400A15}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134:E134"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5337,7 +5336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5357,7 +5356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5377,7 +5376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5437,7 +5436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5477,7 +5476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5497,7 +5496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5517,7 +5516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5537,7 +5536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5557,7 +5556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5577,7 +5576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5597,7 +5596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5617,7 +5616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5637,7 +5636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -5657,7 +5656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -5677,7 +5676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -5697,7 +5696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -5717,7 +5716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -5737,7 +5736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -5757,7 +5756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -5777,7 +5776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -5797,7 +5796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -5817,7 +5816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -5837,7 +5836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -5857,7 +5856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -5877,7 +5876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -5897,7 +5896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -5917,7 +5916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -5937,7 +5936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -5957,7 +5956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -5977,7 +5976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -5997,7 +5996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -6017,7 +6016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -6037,7 +6036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -6057,7 +6056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -6077,7 +6076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -6097,7 +6096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -6117,7 +6116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -6137,7 +6136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -6157,7 +6156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -6177,7 +6176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -6197,7 +6196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -6217,7 +6216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -6237,7 +6236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -6257,7 +6256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -6277,7 +6276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -6297,7 +6296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -6317,7 +6316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -6337,7 +6336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -6357,7 +6356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -6377,7 +6376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -6397,7 +6396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -6417,7 +6416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -6437,7 +6436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -6457,7 +6456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -6477,7 +6476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -6497,7 +6496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -6517,7 +6516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -6537,7 +6536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -6557,7 +6556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -6577,7 +6576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -6597,7 +6596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -6617,7 +6616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -6637,7 +6636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -6657,7 +6656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -6677,7 +6676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -6697,7 +6696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -6717,7 +6716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -6737,7 +6736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -6757,7 +6756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -6777,7 +6776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -6797,7 +6796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -6817,7 +6816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -6837,7 +6836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -6857,7 +6856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -6877,7 +6876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -6897,7 +6896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -6917,7 +6916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -6937,7 +6936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -6957,7 +6956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -6977,7 +6976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -6997,7 +6996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -7017,7 +7016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -7037,7 +7036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -7057,7 +7056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>88</v>
       </c>
@@ -7077,7 +7076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>89</v>
       </c>
@@ -7097,7 +7096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>90</v>
       </c>
@@ -7117,7 +7116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>91</v>
       </c>
@@ -7137,7 +7136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>92</v>
       </c>
@@ -7157,7 +7156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>93</v>
       </c>
@@ -7177,7 +7176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>94</v>
       </c>
@@ -7197,7 +7196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>95</v>
       </c>
@@ -7217,7 +7216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>96</v>
       </c>
@@ -7237,7 +7236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>97</v>
       </c>
@@ -7257,7 +7256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>98</v>
       </c>
@@ -7277,7 +7276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>99</v>
       </c>
@@ -7297,7 +7296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>100</v>
       </c>
@@ -7317,7 +7316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>101</v>
       </c>
@@ -7337,7 +7336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>102</v>
       </c>
@@ -7357,7 +7356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>103</v>
       </c>
@@ -7377,7 +7376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>104</v>
       </c>
@@ -7397,7 +7396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>105</v>
       </c>
@@ -7417,7 +7416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>106</v>
       </c>
@@ -7437,7 +7436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>107</v>
       </c>
@@ -7457,7 +7456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>108</v>
       </c>
@@ -7477,7 +7476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>113</v>
       </c>
@@ -7497,7 +7496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>114</v>
       </c>
@@ -7517,7 +7516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>115</v>
       </c>
@@ -7537,7 +7536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>116</v>
       </c>
@@ -7557,7 +7556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>117</v>
       </c>
@@ -7577,7 +7576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>118</v>
       </c>
@@ -7597,7 +7596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>119</v>
       </c>
@@ -7617,7 +7616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>121</v>
       </c>
@@ -7637,7 +7636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>122</v>
       </c>
@@ -7657,7 +7656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>123</v>
       </c>
@@ -7677,7 +7676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>124</v>
       </c>
@@ -7697,7 +7696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>125</v>
       </c>
@@ -7717,7 +7716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>126</v>
       </c>
@@ -7737,7 +7736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>127</v>
       </c>
@@ -7757,7 +7756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>128</v>
       </c>
@@ -7777,7 +7776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>129</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>130</v>
       </c>
@@ -7817,7 +7816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>131</v>
       </c>
@@ -7837,7 +7836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>133</v>
       </c>
@@ -7857,7 +7856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>134</v>
       </c>
@@ -7877,7 +7876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>135</v>
       </c>
@@ -7897,7 +7896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>136</v>
       </c>
@@ -7917,7 +7916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>137</v>
       </c>
@@ -7937,7 +7936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>138</v>
       </c>
@@ -7957,7 +7956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>139</v>
       </c>
@@ -7997,7 +7996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>141</v>
       </c>
@@ -8017,7 +8016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>142</v>
       </c>
@@ -8037,7 +8036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>143</v>
       </c>
@@ -8057,7 +8056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>145</v>
       </c>
@@ -8077,7 +8076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>146</v>
       </c>
@@ -8117,7 +8116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>148</v>
       </c>
@@ -8137,7 +8136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>149</v>
       </c>
@@ -8157,7 +8156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>150</v>
       </c>
@@ -8177,7 +8176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>151</v>
       </c>
@@ -8197,7 +8196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>152</v>
       </c>
@@ -8217,7 +8216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>153</v>
       </c>
@@ -8237,7 +8236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>154</v>
       </c>
@@ -8257,7 +8256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>155</v>
       </c>
@@ -8277,7 +8276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>156</v>
       </c>
@@ -8297,7 +8296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>157</v>
       </c>
@@ -8317,7 +8316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>158</v>
       </c>
@@ -8337,7 +8336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>159</v>
       </c>
@@ -8357,7 +8356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>160</v>
       </c>
@@ -8377,7 +8376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>161</v>
       </c>
@@ -8397,7 +8396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>162</v>
       </c>
@@ -8417,7 +8416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>163</v>
       </c>
@@ -8437,7 +8436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>164</v>
       </c>
@@ -8457,7 +8456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>165</v>
       </c>
@@ -8477,7 +8476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>166</v>
       </c>
@@ -8497,7 +8496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>167</v>
       </c>
@@ -8517,7 +8516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>168</v>
       </c>
@@ -8537,7 +8536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>169</v>
       </c>
@@ -8557,7 +8556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>170</v>
       </c>
@@ -8577,7 +8576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>171</v>
       </c>
@@ -8597,7 +8596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>172</v>
       </c>
@@ -8617,7 +8616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>173</v>
       </c>
@@ -8637,7 +8636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>174</v>
       </c>
@@ -8657,7 +8656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>175</v>
       </c>
@@ -8677,7 +8676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>176</v>
       </c>
@@ -8697,7 +8696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>177</v>
       </c>
@@ -8717,7 +8716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>178</v>
       </c>
@@ -8737,7 +8736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>179</v>
       </c>
@@ -8757,7 +8756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>180</v>
       </c>
@@ -8777,7 +8776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>181</v>
       </c>
@@ -8798,13 +8797,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F174" xr:uid="{0E882B2E-E3B9-4870-AF19-8B04F3400A15}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>